--- a/report.xlsx
+++ b/report.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\soho\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F08D55E8-E505-4B19-90EF-CA417FBE209E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="時程規劃" sheetId="1" r:id="rId1"/>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="230">
   <si>
     <t>任務名稱</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -654,118 +653,278 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Attractions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>景點名稱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>區域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>詳細地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>table : Attractions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>table : favorite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>schedule</t>
+  </si>
+  <si>
+    <t>行程資料表需要討論</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1027~1103</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>優化會員相關功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加session機制,user登入通過驗證後,將user id存入user session,用這個判斷是否已經登入,產生登出按鈕不顯示登入按鈕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>line 35:46</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加session機制,user登入通過驗證後,將user id存入user session,登入成功將頁面導向首頁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>line 23:59</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加判斷註冊資料含有空白字串,判斷使用者是否已存在資料庫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>line 161:195</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加登出機制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寵物餐廳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>確認顯示內容、匯入資料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logout.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pet.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>detail.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>把所有資料庫裡面的寵物餐廳列出來</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顯示選取寵物餐廳詳細資訊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>php、boostrap、mysql、css</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1103~1110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>實做找找搜尋功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有頁面,除了顯示結果頁面(SearchResult.php)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>php、css、mysql</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>調整頁面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>找餐廳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寵物專區</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>找景點</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allrestaurant.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pet.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allview.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>php、html、css</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>調整找餐廳連結，增加內頁 親子餐廳、寵物餐廳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>調整寵物專區連結，增加內頁 寵物旅館、寵物餐廳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>調整找景點，增加內頁 遊山、玩水、人文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>實做寵物餐廳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>實做親子餐廳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>petrestaurant.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kidrestaurant.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>實做寵物旅館</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pethotel.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>實做遊山</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>實做玩水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>實做人文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>montain.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sea.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>book.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>php、mysql</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>line 148:173</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以index.php為例,line 38:45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>產生假資料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sql</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>產生假資料確認功能是否完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1111~1117預計完成功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>調整畫面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>製作會員專區</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>匯入資料補資料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>fid</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Attractions</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>景點名稱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>區域</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>詳細地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>table : Attractions</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>table : favorite</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>schedule</t>
-  </si>
-  <si>
-    <t>行程資料表需要討論</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1027~1103</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>優化會員相關功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>php</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加session機制,user登入通過驗證後,將user id存入user session,用這個判斷是否已經登入,產生登出按鈕不顯示登入按鈕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>line 35:46</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加session機制,user登入通過驗證後,將user id存入user session,登入成功將頁面導向首頁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>line 23:59</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加判斷註冊資料含有空白字串,判斷使用者是否已存在資料庫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>line 161:195</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加登出機制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>寵物餐廳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>確認顯示內容、匯入資料</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>logout.php</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pet.php</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>detail.php</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>把所有資料庫裡面的寵物餐廳列出來</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>顯示選取寵物餐廳詳細資訊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>php、boostrap、mysql、css</t>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>種類</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -812,6 +971,22 @@
       <family val="2"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -845,7 +1020,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -985,13 +1160,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1073,6 +1259,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1098,10 +1293,22 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1437,11 +1644,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:U17"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1509,13 +1716,13 @@
       <c r="P4" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="Q4" s="27" t="s">
+      <c r="Q4" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="R4" s="28"/>
-      <c r="S4" s="28"/>
-      <c r="T4" s="28"/>
-      <c r="U4" s="28"/>
+      <c r="R4" s="31"/>
+      <c r="S4" s="31"/>
+      <c r="T4" s="31"/>
+      <c r="U4" s="31"/>
     </row>
     <row r="5" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
@@ -1537,11 +1744,11 @@
       <c r="P5" s="14">
         <v>1</v>
       </c>
-      <c r="Q5" s="29"/>
-      <c r="R5" s="30"/>
-      <c r="S5" s="30"/>
-      <c r="T5" s="30"/>
-      <c r="U5" s="30"/>
+      <c r="Q5" s="32"/>
+      <c r="R5" s="33"/>
+      <c r="S5" s="33"/>
+      <c r="T5" s="33"/>
+      <c r="U5" s="33"/>
     </row>
     <row r="6" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
@@ -1561,11 +1768,11 @@
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="15"/>
-      <c r="Q6" s="29"/>
-      <c r="R6" s="30"/>
-      <c r="S6" s="30"/>
-      <c r="T6" s="30"/>
-      <c r="U6" s="30"/>
+      <c r="Q6" s="32"/>
+      <c r="R6" s="33"/>
+      <c r="S6" s="33"/>
+      <c r="T6" s="33"/>
+      <c r="U6" s="33"/>
     </row>
     <row r="7" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B7" s="9" t="s">
@@ -1584,14 +1791,16 @@
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="31" t="s">
+      <c r="P7" s="14">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="R7" s="32"/>
-      <c r="S7" s="32"/>
-      <c r="T7" s="32"/>
-      <c r="U7" s="32"/>
+      <c r="R7" s="35"/>
+      <c r="S7" s="35"/>
+      <c r="T7" s="35"/>
+      <c r="U7" s="35"/>
     </row>
     <row r="8" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
@@ -1611,15 +1820,15 @@
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" s="14">
-        <v>0.8</v>
-      </c>
-      <c r="Q8" s="29" t="s">
-        <v>183</v>
-      </c>
-      <c r="R8" s="30"/>
-      <c r="S8" s="30"/>
-      <c r="T8" s="30"/>
-      <c r="U8" s="30"/>
+        <v>1</v>
+      </c>
+      <c r="Q8" s="32" t="s">
+        <v>182</v>
+      </c>
+      <c r="R8" s="33"/>
+      <c r="S8" s="33"/>
+      <c r="T8" s="33"/>
+      <c r="U8" s="33"/>
     </row>
     <row r="9" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B9" s="9" t="s">
@@ -1638,12 +1847,14 @@
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="29"/>
-      <c r="R9" s="30"/>
-      <c r="S9" s="30"/>
-      <c r="T9" s="30"/>
-      <c r="U9" s="30"/>
+      <c r="P9" s="14">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="32"/>
+      <c r="R9" s="33"/>
+      <c r="S9" s="33"/>
+      <c r="T9" s="33"/>
+      <c r="U9" s="33"/>
     </row>
     <row r="10" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="s">
@@ -1665,13 +1876,13 @@
       <c r="P10" s="14">
         <v>0.5</v>
       </c>
-      <c r="Q10" s="29" t="s">
+      <c r="Q10" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="R10" s="30"/>
-      <c r="S10" s="30"/>
-      <c r="T10" s="30"/>
-      <c r="U10" s="30"/>
+      <c r="R10" s="33"/>
+      <c r="S10" s="33"/>
+      <c r="T10" s="33"/>
+      <c r="U10" s="33"/>
     </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
@@ -1693,11 +1904,11 @@
       <c r="P11" s="14">
         <v>1</v>
       </c>
-      <c r="Q11" s="29"/>
-      <c r="R11" s="30"/>
-      <c r="S11" s="30"/>
-      <c r="T11" s="30"/>
-      <c r="U11" s="30"/>
+      <c r="Q11" s="32"/>
+      <c r="R11" s="33"/>
+      <c r="S11" s="33"/>
+      <c r="T11" s="33"/>
+      <c r="U11" s="33"/>
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B12" s="9" t="s">
@@ -1719,11 +1930,11 @@
       <c r="P12" s="14">
         <v>1</v>
       </c>
-      <c r="Q12" s="29"/>
-      <c r="R12" s="30"/>
-      <c r="S12" s="30"/>
-      <c r="T12" s="30"/>
-      <c r="U12" s="30"/>
+      <c r="Q12" s="32"/>
+      <c r="R12" s="33"/>
+      <c r="S12" s="33"/>
+      <c r="T12" s="33"/>
+      <c r="U12" s="33"/>
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B13" s="9" t="s">
@@ -1745,11 +1956,11 @@
       <c r="P13" s="14">
         <v>1</v>
       </c>
-      <c r="Q13" s="29"/>
-      <c r="R13" s="30"/>
-      <c r="S13" s="30"/>
-      <c r="T13" s="30"/>
-      <c r="U13" s="30"/>
+      <c r="Q13" s="32"/>
+      <c r="R13" s="33"/>
+      <c r="S13" s="33"/>
+      <c r="T13" s="33"/>
+      <c r="U13" s="33"/>
     </row>
     <row r="14" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
@@ -1771,11 +1982,11 @@
       <c r="P14" s="14">
         <v>1</v>
       </c>
-      <c r="Q14" s="29"/>
-      <c r="R14" s="30"/>
-      <c r="S14" s="30"/>
-      <c r="T14" s="30"/>
-      <c r="U14" s="30"/>
+      <c r="Q14" s="32"/>
+      <c r="R14" s="33"/>
+      <c r="S14" s="33"/>
+      <c r="T14" s="33"/>
+      <c r="U14" s="33"/>
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B15" s="9" t="s">
@@ -1797,13 +2008,13 @@
       <c r="P15" s="14">
         <v>0.5</v>
       </c>
-      <c r="Q15" s="29" t="s">
-        <v>171</v>
-      </c>
-      <c r="R15" s="30"/>
-      <c r="S15" s="30"/>
-      <c r="T15" s="30"/>
-      <c r="U15" s="30"/>
+      <c r="Q15" s="32" t="s">
+        <v>170</v>
+      </c>
+      <c r="R15" s="33"/>
+      <c r="S15" s="33"/>
+      <c r="T15" s="33"/>
+      <c r="U15" s="33"/>
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
@@ -1823,11 +2034,11 @@
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="15"/>
-      <c r="Q16" s="29"/>
-      <c r="R16" s="30"/>
-      <c r="S16" s="30"/>
-      <c r="T16" s="30"/>
-      <c r="U16" s="30"/>
+      <c r="Q16" s="32"/>
+      <c r="R16" s="33"/>
+      <c r="S16" s="33"/>
+      <c r="T16" s="33"/>
+      <c r="U16" s="33"/>
     </row>
     <row r="17" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="4" t="s">
@@ -1847,11 +2058,11 @@
       <c r="N17" s="17"/>
       <c r="O17" s="17"/>
       <c r="P17" s="16"/>
-      <c r="Q17" s="29"/>
-      <c r="R17" s="30"/>
-      <c r="S17" s="30"/>
-      <c r="T17" s="30"/>
-      <c r="U17" s="30"/>
+      <c r="Q17" s="32"/>
+      <c r="R17" s="33"/>
+      <c r="S17" s="33"/>
+      <c r="T17" s="33"/>
+      <c r="U17" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -1877,7 +2088,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H39"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
@@ -1916,10 +2127,10 @@
       <c r="H3" s="19"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="33" t="s">
         <v>37</v>
       </c>
       <c r="D4" t="s">
@@ -1936,8 +2147,8 @@
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
       <c r="E5" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2160,8 @@
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
       <c r="E6" t="s">
         <v>40</v>
       </c>
@@ -1962,16 +2173,16 @@
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
       <c r="D9" t="s">
         <v>31</v>
       </c>
@@ -2048,7 +2259,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59963571-BEC8-4279-90F5-BFA3BCDA20E2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2065,10 +2276,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" s="22" t="s">
@@ -2083,30 +2294,30 @@
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="34"/>
+      <c r="C3" s="37"/>
       <c r="D3" s="21">
         <v>1</v>
       </c>
       <c r="E3" s="22"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="34"/>
+      <c r="C4" s="37"/>
       <c r="D4" s="21">
         <v>1</v>
       </c>
       <c r="E4" s="22"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="34"/>
+      <c r="C5" s="37"/>
       <c r="D5" s="21">
         <v>0.5</v>
       </c>
@@ -2115,20 +2326,20 @@
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="34"/>
+      <c r="C6" s="37"/>
       <c r="D6" s="21">
         <v>1</v>
       </c>
       <c r="E6" s="22"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="C7" s="34"/>
+      <c r="C7" s="37"/>
       <c r="D7" s="21">
         <v>1</v>
       </c>
@@ -2154,22 +2365,22 @@
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="D12" s="30"/>
-      <c r="E12" s="33" t="s">
+      <c r="D12" s="33"/>
+      <c r="E12" s="36" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="33"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="36"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" s="22" t="s">
@@ -2295,7 +2506,7 @@
         <v>154</v>
       </c>
       <c r="C23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D23" t="s">
         <v>79</v>
@@ -2309,7 +2520,7 @@
         <v>155</v>
       </c>
       <c r="C24" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D24" t="s">
         <v>79</v>
@@ -2340,11 +2551,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED28EC81-D948-4129-B81F-3686329CEC98}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -2359,7 +2570,7 @@
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
@@ -2377,88 +2588,88 @@
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="30" t="s">
-        <v>173</v>
+      <c r="B4" s="33" t="s">
+        <v>172</v>
       </c>
       <c r="C4" s="22" t="s">
         <v>68</v>
       </c>
       <c r="D4" t="s">
+        <v>173</v>
+      </c>
+      <c r="E4" t="s">
         <v>174</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>175</v>
       </c>
-      <c r="F4" t="s">
-        <v>176</v>
-      </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="30"/>
+      <c r="B5" s="33"/>
       <c r="C5" s="22" t="s">
         <v>74</v>
       </c>
       <c r="D5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E5" t="s">
+        <v>176</v>
+      </c>
+      <c r="F5" t="s">
         <v>177</v>
       </c>
-      <c r="F5" t="s">
-        <v>178</v>
-      </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="30"/>
+      <c r="B6" s="33"/>
       <c r="C6" s="22" t="s">
         <v>73</v>
       </c>
       <c r="D6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E6" t="s">
+        <v>178</v>
+      </c>
+      <c r="F6" t="s">
         <v>179</v>
       </c>
-      <c r="F6" t="s">
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="33"/>
+      <c r="C7" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="D7" t="s">
+        <v>173</v>
+      </c>
+      <c r="E7" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="30"/>
-      <c r="C7" s="22" t="s">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="C8" s="22" t="s">
         <v>184</v>
       </c>
-      <c r="D7" t="s">
-        <v>174</v>
-      </c>
-      <c r="E7" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="30" t="s">
-        <v>182</v>
-      </c>
-      <c r="C8" s="22" t="s">
+      <c r="D8" t="s">
+        <v>188</v>
+      </c>
+      <c r="E8" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="33"/>
+      <c r="C9" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="D8" t="s">
-        <v>189</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="D9" t="s">
+        <v>188</v>
+      </c>
+      <c r="E9" t="s">
         <v>187</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="30"/>
-      <c r="C9" s="22" t="s">
-        <v>186</v>
-      </c>
-      <c r="D9" t="s">
-        <v>189</v>
-      </c>
-      <c r="E9" t="s">
-        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -2472,24 +2683,245 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9751527C-4E7D-4E35-9B37-4BEDB6BE1BC1}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:D21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.125" customWidth="1"/>
+    <col min="3" max="3" width="26" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="C4" t="s">
+        <v>192</v>
+      </c>
+      <c r="D4" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="B5" s="22"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="28" t="s">
+        <v>194</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="C6" t="s">
+        <v>200</v>
+      </c>
+      <c r="D6" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="29" t="s">
+        <v>204</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="C7" t="s">
+        <v>216</v>
+      </c>
+      <c r="D7" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="29" t="s">
+        <v>205</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="C8" t="s">
+        <v>216</v>
+      </c>
+      <c r="D8" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="28" t="s">
+        <v>195</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="C9" t="s">
+        <v>200</v>
+      </c>
+      <c r="D9" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="29" t="s">
+        <v>204</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="C10" t="s">
+        <v>216</v>
+      </c>
+      <c r="D10" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="29" t="s">
+        <v>208</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="C11" t="s">
+        <v>216</v>
+      </c>
+      <c r="D11" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="28" t="s">
+        <v>196</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="C12" t="s">
+        <v>200</v>
+      </c>
+      <c r="D12" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="28" t="s">
+        <v>210</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>213</v>
+      </c>
+      <c r="C13" t="s">
+        <v>216</v>
+      </c>
+      <c r="D13" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="28" t="s">
+        <v>211</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>214</v>
+      </c>
+      <c r="C14" t="s">
+        <v>216</v>
+      </c>
+      <c r="D14" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="28" t="s">
+        <v>212</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="C15" t="s">
+        <v>216</v>
+      </c>
+      <c r="D15" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="C16" t="s">
+        <v>220</v>
+      </c>
+      <c r="D16" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="29" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="28" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="28" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="28" t="s">
+        <v>225</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{724828A2-21F5-42AA-96FF-F6D30EC11AC5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="G2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -2502,26 +2934,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="D1" s="35" t="s">
+      <c r="B1" s="39"/>
+      <c r="D1" s="39" t="s">
         <v>144</v>
       </c>
-      <c r="E1" s="35"/>
-      <c r="G1" s="35" t="s">
+      <c r="E1" s="39"/>
+      <c r="G1" s="39" t="s">
         <v>145</v>
       </c>
-      <c r="H1" s="35"/>
-      <c r="J1" s="35" t="s">
+      <c r="H1" s="39"/>
+      <c r="J1" s="39" t="s">
         <v>156</v>
       </c>
-      <c r="K1" s="35"/>
-      <c r="M1" s="36" t="s">
-        <v>164</v>
-      </c>
-      <c r="N1" s="36"/>
+      <c r="K1" s="39"/>
+      <c r="M1" s="38" t="s">
+        <v>163</v>
+      </c>
+      <c r="N1" s="38"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
@@ -2536,10 +2968,10 @@
       <c r="E2" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="G2" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="H2" s="26" t="s">
+      <c r="H2" s="43" t="s">
         <v>87</v>
       </c>
       <c r="J2" s="26" t="s">
@@ -2578,10 +3010,10 @@
         <v>157</v>
       </c>
       <c r="K3" s="26" t="s">
-        <v>143</v>
+        <v>227</v>
       </c>
       <c r="M3" s="26" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N3" s="26" t="s">
         <v>88</v>
@@ -2613,7 +3045,7 @@
         <v>159</v>
       </c>
       <c r="M4" s="26" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="N4" s="26" t="s">
         <v>142</v>
@@ -2668,10 +3100,10 @@
         <v>162</v>
       </c>
       <c r="K6" s="26" t="s">
-        <v>163</v>
+        <v>226</v>
       </c>
       <c r="M6" s="26" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="N6" s="26" t="s">
         <v>118</v>
@@ -2704,6 +3136,12 @@
       <c r="E8" s="26" t="s">
         <v>118</v>
       </c>
+      <c r="G8" s="40" t="s">
+        <v>229</v>
+      </c>
+      <c r="H8" s="41" t="s">
+        <v>228</v>
+      </c>
       <c r="M8" s="26"/>
       <c r="N8" s="26"/>
     </row>
@@ -2730,10 +3168,10 @@
       <c r="E11" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="G11" s="30" t="s">
-        <v>170</v>
-      </c>
-      <c r="H11" s="30"/>
+      <c r="G11" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="H11" s="33"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D12" s="26" t="s">

--- a/report.xlsx
+++ b/report.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="231">
   <si>
     <t>任務名稱</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -913,6 +913,10 @@
   </si>
   <si>
     <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1268,6 +1272,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1275,40 +1297,22 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1716,13 +1720,13 @@
       <c r="P4" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="Q4" s="30" t="s">
+      <c r="Q4" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="R4" s="31"/>
-      <c r="S4" s="31"/>
-      <c r="T4" s="31"/>
-      <c r="U4" s="31"/>
+      <c r="R4" s="37"/>
+      <c r="S4" s="37"/>
+      <c r="T4" s="37"/>
+      <c r="U4" s="37"/>
     </row>
     <row r="5" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
@@ -1744,11 +1748,11 @@
       <c r="P5" s="14">
         <v>1</v>
       </c>
-      <c r="Q5" s="32"/>
-      <c r="R5" s="33"/>
-      <c r="S5" s="33"/>
-      <c r="T5" s="33"/>
-      <c r="U5" s="33"/>
+      <c r="Q5" s="34"/>
+      <c r="R5" s="35"/>
+      <c r="S5" s="35"/>
+      <c r="T5" s="35"/>
+      <c r="U5" s="35"/>
     </row>
     <row r="6" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
@@ -1768,11 +1772,11 @@
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="15"/>
-      <c r="Q6" s="32"/>
-      <c r="R6" s="33"/>
-      <c r="S6" s="33"/>
-      <c r="T6" s="33"/>
-      <c r="U6" s="33"/>
+      <c r="Q6" s="34"/>
+      <c r="R6" s="35"/>
+      <c r="S6" s="35"/>
+      <c r="T6" s="35"/>
+      <c r="U6" s="35"/>
     </row>
     <row r="7" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B7" s="9" t="s">
@@ -1794,13 +1798,13 @@
       <c r="P7" s="14">
         <v>1</v>
       </c>
-      <c r="Q7" s="34" t="s">
+      <c r="Q7" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="R7" s="35"/>
-      <c r="S7" s="35"/>
-      <c r="T7" s="35"/>
-      <c r="U7" s="35"/>
+      <c r="R7" s="39"/>
+      <c r="S7" s="39"/>
+      <c r="T7" s="39"/>
+      <c r="U7" s="39"/>
     </row>
     <row r="8" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
@@ -1822,13 +1826,13 @@
       <c r="P8" s="14">
         <v>1</v>
       </c>
-      <c r="Q8" s="32" t="s">
+      <c r="Q8" s="34" t="s">
         <v>182</v>
       </c>
-      <c r="R8" s="33"/>
-      <c r="S8" s="33"/>
-      <c r="T8" s="33"/>
-      <c r="U8" s="33"/>
+      <c r="R8" s="35"/>
+      <c r="S8" s="35"/>
+      <c r="T8" s="35"/>
+      <c r="U8" s="35"/>
     </row>
     <row r="9" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B9" s="9" t="s">
@@ -1850,11 +1854,11 @@
       <c r="P9" s="14">
         <v>1</v>
       </c>
-      <c r="Q9" s="32"/>
-      <c r="R9" s="33"/>
-      <c r="S9" s="33"/>
-      <c r="T9" s="33"/>
-      <c r="U9" s="33"/>
+      <c r="Q9" s="34"/>
+      <c r="R9" s="35"/>
+      <c r="S9" s="35"/>
+      <c r="T9" s="35"/>
+      <c r="U9" s="35"/>
     </row>
     <row r="10" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="s">
@@ -1876,13 +1880,13 @@
       <c r="P10" s="14">
         <v>0.5</v>
       </c>
-      <c r="Q10" s="32" t="s">
+      <c r="Q10" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="R10" s="33"/>
-      <c r="S10" s="33"/>
-      <c r="T10" s="33"/>
-      <c r="U10" s="33"/>
+      <c r="R10" s="35"/>
+      <c r="S10" s="35"/>
+      <c r="T10" s="35"/>
+      <c r="U10" s="35"/>
     </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
@@ -1904,11 +1908,11 @@
       <c r="P11" s="14">
         <v>1</v>
       </c>
-      <c r="Q11" s="32"/>
-      <c r="R11" s="33"/>
-      <c r="S11" s="33"/>
-      <c r="T11" s="33"/>
-      <c r="U11" s="33"/>
+      <c r="Q11" s="34"/>
+      <c r="R11" s="35"/>
+      <c r="S11" s="35"/>
+      <c r="T11" s="35"/>
+      <c r="U11" s="35"/>
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B12" s="9" t="s">
@@ -1930,11 +1934,11 @@
       <c r="P12" s="14">
         <v>1</v>
       </c>
-      <c r="Q12" s="32"/>
-      <c r="R12" s="33"/>
-      <c r="S12" s="33"/>
-      <c r="T12" s="33"/>
-      <c r="U12" s="33"/>
+      <c r="Q12" s="34"/>
+      <c r="R12" s="35"/>
+      <c r="S12" s="35"/>
+      <c r="T12" s="35"/>
+      <c r="U12" s="35"/>
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B13" s="9" t="s">
@@ -1956,11 +1960,11 @@
       <c r="P13" s="14">
         <v>1</v>
       </c>
-      <c r="Q13" s="32"/>
-      <c r="R13" s="33"/>
-      <c r="S13" s="33"/>
-      <c r="T13" s="33"/>
-      <c r="U13" s="33"/>
+      <c r="Q13" s="34"/>
+      <c r="R13" s="35"/>
+      <c r="S13" s="35"/>
+      <c r="T13" s="35"/>
+      <c r="U13" s="35"/>
     </row>
     <row r="14" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
@@ -1982,11 +1986,11 @@
       <c r="P14" s="14">
         <v>1</v>
       </c>
-      <c r="Q14" s="32"/>
-      <c r="R14" s="33"/>
-      <c r="S14" s="33"/>
-      <c r="T14" s="33"/>
-      <c r="U14" s="33"/>
+      <c r="Q14" s="34"/>
+      <c r="R14" s="35"/>
+      <c r="S14" s="35"/>
+      <c r="T14" s="35"/>
+      <c r="U14" s="35"/>
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B15" s="9" t="s">
@@ -2008,13 +2012,13 @@
       <c r="P15" s="14">
         <v>0.5</v>
       </c>
-      <c r="Q15" s="32" t="s">
+      <c r="Q15" s="34" t="s">
         <v>170</v>
       </c>
-      <c r="R15" s="33"/>
-      <c r="S15" s="33"/>
-      <c r="T15" s="33"/>
-      <c r="U15" s="33"/>
+      <c r="R15" s="35"/>
+      <c r="S15" s="35"/>
+      <c r="T15" s="35"/>
+      <c r="U15" s="35"/>
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
@@ -2034,11 +2038,11 @@
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="15"/>
-      <c r="Q16" s="32"/>
-      <c r="R16" s="33"/>
-      <c r="S16" s="33"/>
-      <c r="T16" s="33"/>
-      <c r="U16" s="33"/>
+      <c r="Q16" s="34"/>
+      <c r="R16" s="35"/>
+      <c r="S16" s="35"/>
+      <c r="T16" s="35"/>
+      <c r="U16" s="35"/>
     </row>
     <row r="17" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="4" t="s">
@@ -2058,14 +2062,21 @@
       <c r="N17" s="17"/>
       <c r="O17" s="17"/>
       <c r="P17" s="16"/>
-      <c r="Q17" s="32"/>
-      <c r="R17" s="33"/>
-      <c r="S17" s="33"/>
-      <c r="T17" s="33"/>
-      <c r="U17" s="33"/>
+      <c r="Q17" s="34"/>
+      <c r="R17" s="35"/>
+      <c r="S17" s="35"/>
+      <c r="T17" s="35"/>
+      <c r="U17" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="Q4:U4"/>
+    <mergeCell ref="Q5:U5"/>
+    <mergeCell ref="Q6:U6"/>
+    <mergeCell ref="Q7:U7"/>
+    <mergeCell ref="Q10:U10"/>
+    <mergeCell ref="Q9:U9"/>
+    <mergeCell ref="Q8:U8"/>
     <mergeCell ref="Q17:U17"/>
     <mergeCell ref="Q11:U11"/>
     <mergeCell ref="Q12:U12"/>
@@ -2073,13 +2084,6 @@
     <mergeCell ref="Q14:U14"/>
     <mergeCell ref="Q15:U15"/>
     <mergeCell ref="Q16:U16"/>
-    <mergeCell ref="Q4:U4"/>
-    <mergeCell ref="Q5:U5"/>
-    <mergeCell ref="Q6:U6"/>
-    <mergeCell ref="Q7:U7"/>
-    <mergeCell ref="Q10:U10"/>
-    <mergeCell ref="Q9:U9"/>
-    <mergeCell ref="Q8:U8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2127,10 +2131,10 @@
       <c r="H3" s="19"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="35" t="s">
         <v>37</v>
       </c>
       <c r="D4" t="s">
@@ -2147,8 +2151,8 @@
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
       <c r="E5" t="s">
         <v>32</v>
       </c>
@@ -2160,8 +2164,8 @@
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
       <c r="E6" t="s">
         <v>40</v>
       </c>
@@ -2173,16 +2177,16 @@
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
       <c r="D9" t="s">
         <v>31</v>
       </c>
@@ -2276,10 +2280,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" s="22" t="s">
@@ -2294,30 +2298,30 @@
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="37"/>
+      <c r="C3" s="40"/>
       <c r="D3" s="21">
         <v>1</v>
       </c>
       <c r="E3" s="22"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="37"/>
+      <c r="C4" s="40"/>
       <c r="D4" s="21">
         <v>1</v>
       </c>
       <c r="E4" s="22"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="37"/>
+      <c r="C5" s="40"/>
       <c r="D5" s="21">
         <v>0.5</v>
       </c>
@@ -2326,20 +2330,20 @@
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="37"/>
+      <c r="C6" s="40"/>
       <c r="D6" s="21">
         <v>1</v>
       </c>
       <c r="E6" s="22"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="C7" s="37"/>
+      <c r="C7" s="40"/>
       <c r="D7" s="21">
         <v>1</v>
       </c>
@@ -2365,22 +2369,22 @@
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="33" t="s">
+      <c r="C12" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="D12" s="33"/>
-      <c r="E12" s="36" t="s">
+      <c r="D12" s="35"/>
+      <c r="E12" s="41" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="33"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="36"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="41"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" s="22" t="s">
@@ -2534,16 +2538,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="B7:C7"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="B7:C7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2588,7 +2592,7 @@
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="35" t="s">
         <v>172</v>
       </c>
       <c r="C4" s="22" t="s">
@@ -2605,7 +2609,7 @@
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="33"/>
+      <c r="B5" s="35"/>
       <c r="C5" s="22" t="s">
         <v>74</v>
       </c>
@@ -2620,7 +2624,7 @@
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="33"/>
+      <c r="B6" s="35"/>
       <c r="C6" s="22" t="s">
         <v>73</v>
       </c>
@@ -2635,7 +2639,7 @@
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="33"/>
+      <c r="B7" s="35"/>
       <c r="C7" s="22" t="s">
         <v>183</v>
       </c>
@@ -2647,7 +2651,7 @@
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="35" t="s">
         <v>181</v>
       </c>
       <c r="C8" s="22" t="s">
@@ -2661,7 +2665,7 @@
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="33"/>
+      <c r="B9" s="35"/>
       <c r="C9" s="22" t="s">
         <v>185</v>
       </c>
@@ -2921,7 +2925,7 @@
   <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="G2:H2"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -2934,26 +2938,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="43" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="D1" s="39" t="s">
+      <c r="B1" s="43"/>
+      <c r="D1" s="43" t="s">
         <v>144</v>
       </c>
-      <c r="E1" s="39"/>
-      <c r="G1" s="39" t="s">
+      <c r="E1" s="43"/>
+      <c r="G1" s="43" t="s">
         <v>145</v>
       </c>
-      <c r="H1" s="39"/>
-      <c r="J1" s="39" t="s">
+      <c r="H1" s="43"/>
+      <c r="J1" s="43" t="s">
         <v>156</v>
       </c>
-      <c r="K1" s="39"/>
-      <c r="M1" s="38" t="s">
+      <c r="K1" s="43"/>
+      <c r="M1" s="42" t="s">
         <v>163</v>
       </c>
-      <c r="N1" s="38"/>
+      <c r="N1" s="42"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
@@ -2968,10 +2972,10 @@
       <c r="E2" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="G2" s="42" t="s">
+      <c r="G2" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="H2" s="43" t="s">
+      <c r="H2" s="33" t="s">
         <v>87</v>
       </c>
       <c r="J2" s="26" t="s">
@@ -3004,7 +3008,7 @@
         <v>146</v>
       </c>
       <c r="H3" s="26" t="s">
-        <v>88</v>
+        <v>229</v>
       </c>
       <c r="J3" s="26" t="s">
         <v>157</v>
@@ -3136,10 +3140,10 @@
       <c r="E8" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="G8" s="40" t="s">
-        <v>229</v>
-      </c>
-      <c r="H8" s="41" t="s">
+      <c r="G8" s="30" t="s">
+        <v>230</v>
+      </c>
+      <c r="H8" s="31" t="s">
         <v>228</v>
       </c>
       <c r="M8" s="26"/>
@@ -3168,10 +3172,10 @@
       <c r="E11" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="G11" s="33" t="s">
+      <c r="G11" s="35" t="s">
         <v>169</v>
       </c>
-      <c r="H11" s="33"/>
+      <c r="H11" s="35"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D12" s="26" t="s">
